--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.4193350501416</v>
+        <v>92.44217798073809</v>
       </c>
       <c r="D2" t="n">
-        <v>4.518635364287143</v>
+        <v>3.808600846070211</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.98227962539268</v>
+        <v>91.68533084625169</v>
       </c>
       <c r="D3" t="n">
-        <v>4.630292782380261</v>
+        <v>4.14101580602634</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.51308227667609</v>
+        <v>91.9146476800792</v>
       </c>
       <c r="D4" t="n">
-        <v>5.260186796962352</v>
+        <v>5.004900024309369</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.95912102275497</v>
+        <v>90.22495640742987</v>
       </c>
       <c r="D5" t="n">
-        <v>5.304162352670359</v>
+        <v>4.836082112133441</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.36160330502959</v>
+        <v>88.28252970929647</v>
       </c>
       <c r="D6" t="n">
-        <v>5.21941864370604</v>
+        <v>4.10915025056715</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.0372470714004</v>
+        <v>87.6984483353895</v>
       </c>
       <c r="D7" t="n">
-        <v>4.923340829961722</v>
+        <v>4.574219050726563</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.38994228435213</v>
+        <v>86.18239219113842</v>
       </c>
       <c r="D8" t="n">
-        <v>4.854281796793294</v>
+        <v>4.137496745044783</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.62768249348896</v>
+        <v>85.85471458553371</v>
       </c>
       <c r="D9" t="n">
-        <v>4.711457032517181</v>
+        <v>4.186252619031039</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.10099110215786</v>
+        <v>84.1962408089783</v>
       </c>
       <c r="D10" t="n">
-        <v>4.739865502856904</v>
+        <v>4.32188011047336</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.98257093128558</v>
+        <v>83.06162507879492</v>
       </c>
       <c r="D11" t="n">
-        <v>5.289588550190634</v>
+        <v>4.592461502638783</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.16615237917289</v>
+        <v>82.13400567828238</v>
       </c>
       <c r="D12" t="n">
-        <v>4.82283399120225</v>
+        <v>4.742178091504149</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.07991273083314</v>
+        <v>81.20389273545484</v>
       </c>
       <c r="D13" t="n">
-        <v>4.84845006695858</v>
+        <v>4.977272040476129</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.53972466019964</v>
+        <v>79.20726319234785</v>
       </c>
       <c r="D14" t="n">
-        <v>4.920504561646171</v>
+        <v>4.791547762350909</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.8031561824654</v>
+        <v>79.21057893849989</v>
       </c>
       <c r="D15" t="n">
-        <v>4.040424363120139</v>
+        <v>4.497346772864512</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.06886622697196</v>
+        <v>77.91079294195362</v>
       </c>
       <c r="D16" t="n">
-        <v>5.41120483638695</v>
+        <v>4.933463339797822</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.18902132971104</v>
+        <v>76.75644446333371</v>
       </c>
       <c r="D17" t="n">
-        <v>4.283833129363914</v>
+        <v>4.804359911799659</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.33690422074348</v>
+        <v>76.01871971465566</v>
       </c>
       <c r="D18" t="n">
-        <v>5.173758772707959</v>
+        <v>4.93407102713003</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.46198840082465</v>
+        <v>74.72093533671321</v>
       </c>
       <c r="D19" t="n">
-        <v>4.837341933186545</v>
+        <v>3.900609364937849</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.43800190201395</v>
+        <v>73.45638156478486</v>
       </c>
       <c r="D20" t="n">
-        <v>4.734753518296433</v>
+        <v>4.50328901864992</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.00412618020822</v>
+        <v>73.1187921182044</v>
       </c>
       <c r="D21" t="n">
-        <v>4.970273594865243</v>
+        <v>4.688890023917248</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.46050410108346</v>
+        <v>71.62901901891416</v>
       </c>
       <c r="D22" t="n">
-        <v>5.40049583667956</v>
+        <v>4.632808855091906</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.30754352064528</v>
+        <v>71.4551180001009</v>
       </c>
       <c r="D23" t="n">
-        <v>4.954857918505472</v>
+        <v>4.445124373469739</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.22091065858635</v>
+        <v>69.20576375997409</v>
       </c>
       <c r="D24" t="n">
-        <v>4.803217700091704</v>
+        <v>4.414946552529886</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.45170051607171</v>
+        <v>69.27209734301167</v>
       </c>
       <c r="D25" t="n">
-        <v>4.520898521674983</v>
+        <v>4.726452769039684</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.22161479377839</v>
+        <v>67.35793313782676</v>
       </c>
       <c r="D26" t="n">
-        <v>4.733048411438131</v>
+        <v>4.654826203823578</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.81707638067593</v>
+        <v>66.76112044831147</v>
       </c>
       <c r="D27" t="n">
-        <v>4.873185990913196</v>
+        <v>4.829204533544424</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.03392319228881</v>
+        <v>65.36732163898547</v>
       </c>
       <c r="D28" t="n">
-        <v>4.620871040191463</v>
+        <v>4.640821560661328</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.53035888965766</v>
+        <v>64.27571305524991</v>
       </c>
       <c r="D29" t="n">
-        <v>5.067337686570153</v>
+        <v>3.921298540648083</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.47662284368204</v>
+        <v>63.32080663780994</v>
       </c>
       <c r="D30" t="n">
-        <v>4.975698031136085</v>
+        <v>4.413864401130494</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.27115272340797</v>
+        <v>62.07459310520751</v>
       </c>
       <c r="D31" t="n">
-        <v>4.824581641006503</v>
+        <v>4.304437410631362</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.70521929272387</v>
+        <v>61.11471995348122</v>
       </c>
       <c r="D32" t="n">
-        <v>4.508280588431049</v>
+        <v>4.433179194935093</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.57034485055718</v>
+        <v>60.18259754782882</v>
       </c>
       <c r="D33" t="n">
-        <v>4.751753915043708</v>
+        <v>4.933077199357333</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.24892765384098</v>
+        <v>58.6343640731022</v>
       </c>
       <c r="D34" t="n">
-        <v>4.862680781171231</v>
+        <v>4.299677609733308</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.94021737613891</v>
+        <v>57.72202286849285</v>
       </c>
       <c r="D35" t="n">
-        <v>4.857971345791315</v>
+        <v>5.053536920918689</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.92403093649065</v>
+        <v>56.74225807614123</v>
       </c>
       <c r="D36" t="n">
-        <v>4.168078029163974</v>
+        <v>4.274289848263566</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.38043261650108</v>
+        <v>54.71931140892758</v>
       </c>
       <c r="D37" t="n">
-        <v>5.234132161955232</v>
+        <v>4.670309260174544</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.53461054093069</v>
+        <v>54.77556944905264</v>
       </c>
       <c r="D38" t="n">
-        <v>4.783273582854195</v>
+        <v>4.169251951379637</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.87507126360902</v>
+        <v>54.12659897939615</v>
       </c>
       <c r="D39" t="n">
-        <v>4.598460757507328</v>
+        <v>4.89051679554304</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.64662129640743</v>
+        <v>52.23712962362157</v>
       </c>
       <c r="D40" t="n">
-        <v>4.764403947104673</v>
+        <v>4.583835244509348</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.23135751168241</v>
+        <v>51.5683190168556</v>
       </c>
       <c r="D41" t="n">
-        <v>4.680916526605547</v>
+        <v>4.497237506431208</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.83352959662226</v>
+        <v>51.250324130569</v>
       </c>
       <c r="D42" t="n">
-        <v>4.861392956620052</v>
+        <v>4.702097486619675</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.89824110105462</v>
+        <v>49.14429965743177</v>
       </c>
       <c r="D43" t="n">
-        <v>4.902630084243969</v>
+        <v>3.797781384153413</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.33154408936743</v>
+        <v>48.62926690391804</v>
       </c>
       <c r="D44" t="n">
-        <v>5.212003598356842</v>
+        <v>4.29315531542145</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.58484007343556</v>
+        <v>46.90417044068782</v>
       </c>
       <c r="D45" t="n">
-        <v>4.551666027597769</v>
+        <v>4.437064694999557</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.85989378884599</v>
+        <v>46.20959585381996</v>
       </c>
       <c r="D46" t="n">
-        <v>4.693259735989147</v>
+        <v>4.041204889370718</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.23046448635361</v>
+        <v>45.45222867350238</v>
       </c>
       <c r="D47" t="n">
-        <v>4.96242707740117</v>
+        <v>4.552610247844846</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.17779121573787</v>
+        <v>44.49080555371744</v>
       </c>
       <c r="D48" t="n">
-        <v>4.162914484524274</v>
+        <v>4.585456808703191</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.01913949385617</v>
+        <v>43.73710980841965</v>
       </c>
       <c r="D49" t="n">
-        <v>4.525843884120689</v>
+        <v>4.375055303012973</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.66271858656845</v>
+        <v>42.43495161314645</v>
       </c>
       <c r="D50" t="n">
-        <v>4.555354671986486</v>
+        <v>4.155175884394273</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.5673340582079</v>
+        <v>41.57885993058336</v>
       </c>
       <c r="D51" t="n">
-        <v>4.553280919332016</v>
+        <v>4.432538790373015</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.6949107597997</v>
+        <v>40.00086906036539</v>
       </c>
       <c r="D52" t="n">
-        <v>5.194996915270918</v>
+        <v>4.891810487583397</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.74189928542159</v>
+        <v>39.02848737736547</v>
       </c>
       <c r="D53" t="n">
-        <v>4.187959274051791</v>
+        <v>4.913560107375649</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.47777641155812</v>
+        <v>38.89260288498355</v>
       </c>
       <c r="D54" t="n">
-        <v>4.614664897551255</v>
+        <v>4.725102999392161</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.52467305089996</v>
+        <v>37.9963779496747</v>
       </c>
       <c r="D55" t="n">
-        <v>4.319677482531904</v>
+        <v>4.219330414612033</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.13231179542996</v>
+        <v>35.24385928499689</v>
       </c>
       <c r="D56" t="n">
-        <v>4.268094016236802</v>
+        <v>4.664332740225712</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.09485257845322</v>
+        <v>34.09094585723656</v>
       </c>
       <c r="D57" t="n">
-        <v>4.336292179916291</v>
+        <v>4.348969798356316</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.00877385709591</v>
+        <v>33.58985683169307</v>
       </c>
       <c r="D58" t="n">
-        <v>4.27004926863713</v>
+        <v>4.46393911287935</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02391300168316</v>
+        <v>33.08333370856401</v>
       </c>
       <c r="D59" t="n">
-        <v>4.716846792207742</v>
+        <v>4.851506423726168</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.1666073954452</v>
+        <v>32.44466589500422</v>
       </c>
       <c r="D60" t="n">
-        <v>4.40382251448747</v>
+        <v>4.697844558407748</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.24684434724208</v>
+        <v>31.10452804089272</v>
       </c>
       <c r="D61" t="n">
-        <v>4.90887289154267</v>
+        <v>4.418479476706804</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91569530008088</v>
+        <v>29.99140529650657</v>
       </c>
       <c r="D62" t="n">
-        <v>3.960964952965449</v>
+        <v>4.682162680030506</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.10629177414119</v>
+        <v>28.86195881606574</v>
       </c>
       <c r="D63" t="n">
-        <v>4.411908764911055</v>
+        <v>5.08636774254883</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.03541337481534</v>
+        <v>27.01652547190248</v>
       </c>
       <c r="D64" t="n">
-        <v>4.812930899933086</v>
+        <v>4.455899862965074</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.74217366915028</v>
+        <v>27.25089562869954</v>
       </c>
       <c r="D65" t="n">
-        <v>4.887900903347669</v>
+        <v>4.367870849443894</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.36067657967178</v>
+        <v>26.38175399018012</v>
       </c>
       <c r="D66" t="n">
-        <v>4.505156015685354</v>
+        <v>4.73545830074014</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99249174947986</v>
+        <v>24.11385825901623</v>
       </c>
       <c r="D67" t="n">
-        <v>4.430804331874856</v>
+        <v>4.6008841733145</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.19353147127393</v>
+        <v>23.63400151409728</v>
       </c>
       <c r="D68" t="n">
-        <v>4.290284050515119</v>
+        <v>4.568739255929494</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.95394606848135</v>
+        <v>22.68493103584639</v>
       </c>
       <c r="D69" t="n">
-        <v>3.684050688997643</v>
+        <v>4.413931249761647</v>
       </c>
     </row>
   </sheetData>
